--- a/assets/data/_in/motd.xlsx
+++ b/assets/data/_in/motd.xlsx
@@ -47,10 +47,10 @@
     <t>text</t>
   </si>
   <si>
-    <t>תמחור תהליך ערכות</t>
+    <t>הכנת תוכנית בדיקות אמל"ח (ענף מע' מידע לוג')</t>
   </si>
   <si>
-    <t>הכנת תוכנית בדיקות אמל"ח (ענף מע' מידע לוג')</t>
+    <t>עדכון קובץ הדרישות בחתך סטאטוס</t>
   </si>
 </sst>
 </file>
@@ -533,7 +533,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="O14" sqref="O14"/>
+      <selection pane="topLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -562,7 +562,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15">
@@ -570,7 +570,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
